--- a/StructureDefinition-cibmtr-medication-request.xlsx
+++ b/StructureDefinition-cibmtr-medication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T15:43:08-05:00</t>
+    <t>2022-09-08T13:29:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cibmtr-medication-request.xlsx
+++ b/StructureDefinition-cibmtr-medication-request.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="703">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T13:14:50-06:00</t>
+    <t>2023-03-28T10:36:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -576,6 +576,10 @@
   </si>
   <si>
     <t>Coding.code</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+sec-rc:Use transplant center identifier for security tag {matches('^rc_[0-9]{5}$')}</t>
   </si>
   <si>
     <t>./code</t>
@@ -4547,7 +4551,7 @@
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
@@ -4556,21 +4560,21 @@
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4596,14 +4600,14 @@
         <v>99</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -4652,7 +4656,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -4673,21 +4677,21 @@
         <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4710,19 +4714,19 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -4771,7 +4775,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -4792,21 +4796,21 @@
         <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4832,13 +4836,13 @@
         <v>140</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4864,13 +4868,13 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
@@ -4888,7 +4892,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -4920,10 +4924,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4949,13 +4953,13 @@
         <v>128</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -5005,7 +5009,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -5037,10 +5041,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5066,13 +5070,13 @@
         <v>176</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -5098,13 +5102,13 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -5122,7 +5126,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -5154,14 +5158,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5180,16 +5184,16 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5239,7 +5243,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -5260,7 +5264,7 @@
         <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -5271,14 +5275,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -5297,16 +5301,16 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5356,7 +5360,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -5377,7 +5381,7 @@
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -5388,10 +5392,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5417,10 +5421,10 @@
         <v>106</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5469,7 +5473,7 @@
         <v>112</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -5501,13 +5505,13 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>78</v>
@@ -5529,13 +5533,13 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5586,7 +5590,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -5595,7 +5599,7 @@
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>114</v>
@@ -5618,13 +5622,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>78</v>
@@ -5646,13 +5650,13 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5703,7 +5707,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -5712,7 +5716,7 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>114</v>
@@ -5735,10 +5739,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5764,16 +5768,16 @@
         <v>106</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N28" t="s" s="2">
         <v>109</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5822,7 +5826,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -5843,7 +5847,7 @@
         <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5854,10 +5858,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5880,16 +5884,16 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5939,7 +5943,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5954,27 +5958,27 @@
         <v>120</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6000,13 +6004,13 @@
         <v>176</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6032,13 +6036,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -6056,7 +6060,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>86</v>
@@ -6071,16 +6075,16 @@
         <v>120</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -6088,10 +6092,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6114,16 +6118,16 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6149,13 +6153,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -6173,7 +6177,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -6188,13 +6192,13 @@
         <v>120</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -6205,10 +6209,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6234,13 +6238,13 @@
         <v>176</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6266,13 +6270,13 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -6290,7 +6294,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>86</v>
@@ -6305,16 +6309,16 @@
         <v>120</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -6322,10 +6326,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6348,16 +6352,16 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6383,13 +6387,13 @@
         <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>78</v>
@@ -6407,7 +6411,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -6425,13 +6429,13 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -6439,10 +6443,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6468,10 +6472,10 @@
         <v>176</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6498,13 +6502,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -6522,7 +6526,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -6537,16 +6541,16 @@
         <v>120</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>78</v>
@@ -6554,10 +6558,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6580,16 +6584,16 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6639,7 +6643,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -6660,7 +6664,7 @@
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -6671,10 +6675,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6697,13 +6701,13 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6754,7 +6758,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6775,7 +6779,7 @@
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6786,10 +6790,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6812,16 +6816,16 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6851,7 +6855,7 @@
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -6869,7 +6873,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>86</v>
@@ -6884,27 +6888,27 @@
         <v>120</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6927,16 +6931,16 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6986,7 +6990,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
@@ -7001,27 +7005,27 @@
         <v>120</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7044,16 +7048,16 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -7103,7 +7107,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -7118,27 +7122,27 @@
         <v>120</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7161,13 +7165,13 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7218,7 +7222,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -7233,16 +7237,16 @@
         <v>120</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -7250,10 +7254,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7276,13 +7280,13 @@
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7333,7 +7337,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -7348,27 +7352,27 @@
         <v>120</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7391,13 +7395,13 @@
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7448,7 +7452,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -7463,16 +7467,16 @@
         <v>120</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -7480,10 +7484,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7506,13 +7510,13 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7563,7 +7567,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -7578,16 +7582,16 @@
         <v>120</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7595,10 +7599,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7621,16 +7625,16 @@
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7656,13 +7660,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -7680,7 +7684,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -7695,13 +7699,13 @@
         <v>120</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7712,10 +7716,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7738,13 +7742,13 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7795,7 +7799,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -7816,10 +7820,10 @@
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7827,10 +7831,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7853,16 +7857,16 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7892,7 +7896,7 @@
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7910,7 +7914,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -7925,27 +7929,27 @@
         <v>120</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7968,16 +7972,16 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8027,7 +8031,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -8042,16 +8046,16 @@
         <v>120</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -8059,10 +8063,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8085,13 +8089,13 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8142,7 +8146,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -8157,13 +8161,13 @@
         <v>120</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -8174,10 +8178,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8203,10 +8207,10 @@
         <v>128</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8257,7 +8261,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -8278,7 +8282,7 @@
         <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -8289,10 +8293,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8315,13 +8319,13 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8372,7 +8376,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -8387,13 +8391,13 @@
         <v>120</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -8404,10 +8408,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8430,17 +8434,17 @@
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -8489,7 +8493,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -8504,13 +8508,13 @@
         <v>120</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -8521,10 +8525,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8547,16 +8551,16 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8582,13 +8586,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -8606,7 +8610,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -8627,7 +8631,7 @@
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -8638,10 +8642,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8664,13 +8668,13 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8721,7 +8725,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -8736,13 +8740,13 @@
         <v>120</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8753,10 +8757,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8779,13 +8783,13 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8836,7 +8840,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -8851,13 +8855,13 @@
         <v>120</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8868,10 +8872,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8894,16 +8898,16 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8953,7 +8957,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -8968,13 +8972,13 @@
         <v>120</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8985,10 +8989,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9100,10 +9104,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9217,14 +9221,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9246,16 +9250,16 @@
         <v>106</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>109</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -9304,7 +9308,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -9325,7 +9329,7 @@
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -9336,10 +9340,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9362,17 +9366,17 @@
         <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -9421,7 +9425,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -9442,21 +9446,21 @@
         <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9482,14 +9486,14 @@
         <v>99</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -9538,7 +9542,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -9559,21 +9563,21 @@
         <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9596,19 +9600,19 @@
         <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -9633,13 +9637,13 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -9657,7 +9661,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -9678,21 +9682,21 @@
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9718,10 +9722,10 @@
         <v>99</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9772,7 +9776,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -9793,21 +9797,21 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9830,19 +9834,19 @@
         <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9891,7 +9895,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -9912,7 +9916,7 @@
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9923,10 +9927,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9949,16 +9953,16 @@
         <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9984,13 +9988,13 @@
         <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
@@ -10008,7 +10012,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -10029,21 +10033,21 @@
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10066,19 +10070,19 @@
         <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -10103,13 +10107,13 @@
         <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>78</v>
@@ -10127,7 +10131,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -10148,21 +10152,21 @@
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10185,17 +10189,17 @@
         <v>87</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -10220,13 +10224,13 @@
         <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>78</v>
@@ -10244,7 +10248,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -10265,21 +10269,21 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10302,19 +10306,19 @@
         <v>87</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -10339,13 +10343,13 @@
         <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>78</v>
@@ -10363,7 +10367,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -10384,21 +10388,21 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10421,13 +10425,13 @@
         <v>87</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10478,7 +10482,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -10505,15 +10509,15 @@
         <v>78</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10625,10 +10629,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10742,10 +10746,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10768,17 +10772,17 @@
         <v>87</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10803,13 +10807,13 @@
         <v>78</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>78</v>
@@ -10827,7 +10831,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -10854,15 +10858,15 @@
         <v>78</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10885,19 +10889,19 @@
         <v>87</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -10946,7 +10950,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -10967,21 +10971,21 @@
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11004,19 +11008,19 @@
         <v>87</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -11065,7 +11069,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -11086,21 +11090,21 @@
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11123,19 +11127,19 @@
         <v>87</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -11184,7 +11188,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -11205,21 +11209,21 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11242,19 +11246,19 @@
         <v>87</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -11303,7 +11307,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -11324,7 +11328,7 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -11335,10 +11339,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11361,17 +11365,17 @@
         <v>87</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -11420,7 +11424,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -11441,7 +11445,7 @@
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -11452,10 +11456,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11478,13 +11482,13 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11535,7 +11539,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -11553,10 +11557,10 @@
         <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -11567,10 +11571,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11682,10 +11686,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11799,14 +11803,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11828,16 +11832,16 @@
         <v>106</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N80" t="s" s="2">
         <v>109</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -11886,7 +11890,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -11907,7 +11911,7 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11918,10 +11922,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11944,16 +11948,16 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -12003,7 +12007,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -12024,7 +12028,7 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -12035,10 +12039,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12150,10 +12154,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12267,14 +12271,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12296,16 +12300,16 @@
         <v>106</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>109</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>78</v>
@@ -12354,7 +12358,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -12375,7 +12379,7 @@
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -12386,10 +12390,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12412,13 +12416,13 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12469,7 +12473,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -12490,7 +12494,7 @@
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -12501,10 +12505,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12527,13 +12531,13 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12584,7 +12588,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
@@ -12605,7 +12609,7 @@
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12616,10 +12620,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12642,13 +12646,13 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12699,7 +12703,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
@@ -12720,7 +12724,7 @@
         <v>78</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12731,10 +12735,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12757,19 +12761,19 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>78</v>
@@ -12818,7 +12822,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -12836,10 +12840,10 @@
         <v>78</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12850,10 +12854,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12876,16 +12880,16 @@
         <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12935,7 +12939,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
@@ -12953,24 +12957,24 @@
         <v>78</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12993,13 +12997,13 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -13050,7 +13054,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -13068,24 +13072,24 @@
         <v>78</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13108,16 +13112,16 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13167,7 +13171,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
@@ -13185,10 +13189,10 @@
         <v>78</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>78</v>
@@ -13199,10 +13203,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13225,13 +13229,13 @@
         <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13282,7 +13286,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
@@ -13303,10 +13307,10 @@
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>78</v>
@@ -13314,10 +13318,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13340,13 +13344,13 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13397,7 +13401,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
@@ -13415,10 +13419,10 @@
         <v>78</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
@@ -13429,10 +13433,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13544,10 +13548,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13661,14 +13665,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13690,16 +13694,16 @@
         <v>106</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N96" t="s" s="2">
         <v>109</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>78</v>
@@ -13748,7 +13752,7 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
@@ -13769,7 +13773,7 @@
         <v>78</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>78</v>
@@ -13780,10 +13784,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13806,16 +13810,16 @@
         <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13841,13 +13845,13 @@
         <v>78</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>78</v>
@@ -13865,7 +13869,7 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>86</v>
@@ -13883,24 +13887,24 @@
         <v>78</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13923,13 +13927,13 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13956,13 +13960,13 @@
         <v>78</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>78</v>
@@ -13980,7 +13984,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
@@ -13998,24 +14002,24 @@
         <v>78</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14038,13 +14042,13 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14095,7 +14099,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>76</v>
@@ -14110,13 +14114,13 @@
         <v>120</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>78</v>
@@ -14127,14 +14131,14 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -14153,16 +14157,16 @@
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14212,7 +14216,7 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
@@ -14233,7 +14237,7 @@
         <v>78</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>78</v>
@@ -14244,10 +14248,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14270,16 +14274,16 @@
         <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14329,7 +14333,7 @@
         <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>76</v>
@@ -14344,13 +14348,13 @@
         <v>120</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>78</v>

--- a/StructureDefinition-cibmtr-medication-request.xlsx
+++ b/StructureDefinition-cibmtr-medication-request.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T10:36:55-05:00</t>
+    <t>2023-05-05T10:50:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2534,15 +2534,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.2578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="60.2578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.8984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="59.296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2553,27 +2553,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="192.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.6171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="58.46875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="191.95703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="70.62109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="57.07421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="125.8203125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="131.0546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-cibmtr-medication-request.xlsx
+++ b/StructureDefinition-cibmtr-medication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-23T10:17:11-05:00</t>
+    <t>2024-08-27T12:23:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
